--- a/data/test_login.xlsx
+++ b/data/test_login.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="test_login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -52,7 +65,16 @@
     <t>用户名和密码不能为空</t>
   </si>
   <si>
+    <t>777888456</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>http://{</t>
     </r>
     <r>
@@ -87,12 +109,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -109,31 +131,50 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,8 +186,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,97 +254,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +487,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,11 +538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,17 +570,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -529,39 +579,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,148 +592,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -728,52 +750,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1047,7 +1069,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1103,7 +1125,6 @@
       <c r="A4" s="1">
         <v>777888456</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -1111,23 +1132,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1141,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_login.xlsx
+++ b/data/test_login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="14670" windowHeight="5565"/>
   </bookViews>
   <sheets>
     <sheet name="test_login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -41,69 +41,28 @@
     <t>expect</t>
   </si>
   <si>
+    <t>roo</t>
+  </si>
+  <si>
+    <t>jg123456</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>用户名和密码不能为空</t>
+  </si>
+  <si>
     <t>root</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>roo</t>
-  </si>
-  <si>
-    <t>jg123456</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>用户名和密码不能为空</t>
-  </si>
-  <si>
-    <t>777888456</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>http://{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{spgz_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF080808"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}}/index.html#/</t>
-    </r>
+    <t>http://{{spgz_ip}}/index.html#/svmsweb_jg/bdms/map</t>
   </si>
 </sst>
 </file>
@@ -116,19 +75,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -273,18 +226,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0037A6"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF080808"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -607,133 +548,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -744,7 +685,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,13 +1007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="10.375" style="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
@@ -1108,73 +1049,34 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>777888456</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>777888456</v>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="http://{{spgz_ip}}/index.html#/svmsweb_jg/bdms/map"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/data/test_login.xlsx
+++ b/data/test_login.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14670" windowHeight="5565"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test_login" sheetId="1" r:id="rId1"/>
+    <sheet name="test_login1" sheetId="1" r:id="rId1"/>
+    <sheet name="test_login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -1009,7 +1010,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1080,4 +1081,57 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="10.375" style="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="32.2833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://{{spgz_ip}}/index.html#/svmsweb_jg/bdms/map"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/test_login.xlsx
+++ b/data/test_login.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="16110" windowHeight="9075"/>
   </bookViews>
   <sheets>
-    <sheet name="test_login1" sheetId="1" r:id="rId1"/>
-    <sheet name="test_login" sheetId="2" r:id="rId2"/>
+    <sheet name="test_login" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -36,34 +35,34 @@
     <t>password</t>
   </si>
   <si>
+    <t>is_success_login</t>
+  </si>
+  <si>
     <t>assert_type</t>
   </si>
   <si>
     <t>expect</t>
   </si>
   <si>
-    <t>roo</t>
+    <t>root</t>
   </si>
   <si>
     <t>jg123456</t>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>密码错误</t>
+    <t>True</t>
   </si>
   <si>
     <t>equal</t>
   </si>
   <si>
+    <t>http://{{spgz_ip}}/index.html#/svmsweb_jg/bdms/map</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>用户名和密码不能为空</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>http://{{spgz_ip}}/index.html#/svmsweb_jg/bdms/map</t>
   </si>
 </sst>
 </file>
@@ -1008,128 +1007,71 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="10.375" style="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="32.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.6333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="32.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>777888456</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="http://{{spgz_ip}}/index.html#/svmsweb_jg/bdms/map"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="10.375" style="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="32.2833333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://{{spgz_ip}}/index.html#/svmsweb_jg/bdms/map"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://{{spgz_ip}}/index.html#/svmsweb_jg/bdms/map"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/test_login.xlsx
+++ b/data/test_login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16110" windowHeight="9075"/>
+    <workbookView windowWidth="16350" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="test_login" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>http://{{spgz_ip}}/index.html#/svmsweb_jg/bdms/map</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>用户名和密码不能为空</t>
   </si>
 </sst>
 </file>
@@ -1007,13 +1001,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="10.375" style="1"/>
     <col min="3" max="3" width="16.6333333333333" style="1" customWidth="1"/>
@@ -1055,20 +1049,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>777888456</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://{{spgz_ip}}/index.html#/svmsweb_jg/bdms/map"/>
